--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>315790.7458131064</v>
+        <v>319022.7823460956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3001330.373596265</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20361635.87782002</v>
+        <v>20355670.24425591</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4805772.747885407</v>
+        <v>4813756.46987818</v>
       </c>
     </row>
     <row r="11">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.56635248423083</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="G11" t="n">
         <v>25.62029119463083</v>
@@ -1391,7 +1391,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1531,28 +1531,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2968606583479769</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G14" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
         <v>25.62029119463083</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.361305680129117</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G17" t="n">
-        <v>27.59002526031614</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="H17" t="n">
         <v>27.59002526031614</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,46 +1938,46 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,70 +2002,70 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H19" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="X19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>130.0843554087448</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,58 +2482,58 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>12.94771755361648</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>38.64332793577383</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.107638666203086</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="D32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>114.5017699004985</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>63.24215619956617</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>29.85921600351671</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>196.0929612559941</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>41.34999770271885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>32.8068619888946</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,55 +3442,55 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="X38" t="n">
-        <v>182.6878519172211</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>112.8753346539135</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.4303350649351</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,14 +3740,14 @@
         <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
+        <v>177.9933921796109</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.07264828539811</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>51.67155945914826</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>37.24369802636225</v>
       </c>
     </row>
     <row r="43">
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="D11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="E11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="F11" t="n">
-        <v>79.68686933990632</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G11" t="n">
-        <v>53.80778732512771</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H11" t="n">
-        <v>27.92870531034908</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5045,46 +5045,46 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>27.41371157825499</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N11" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F12" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G12" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I12" t="n">
         <v>2.049623295570466</v>
@@ -5127,16 +5127,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="M12" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="N12" t="n">
         <v>26.38889993046976</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>51.75298821315428</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="P12" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
@@ -5151,19 +5151,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>50.72300074896609</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="G13" t="n">
-        <v>50.72300074896609</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H13" t="n">
-        <v>50.72300074896609</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I13" t="n">
-        <v>24.84391873418747</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
         <v>2.049623295570466</v>
@@ -5218,31 +5218,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
         <v>53.80778732512771</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="C15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="D15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="F15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="G15" t="n">
-        <v>27.92870531034908</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H15" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
@@ -5364,10 +5364,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N15" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O15" t="n">
         <v>102.4811647785233</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="W15" t="n">
-        <v>76.6020827637447</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="X15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="J16" t="n">
         <v>2.049623295570466</v>
@@ -5455,31 +5455,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F17" t="n">
-        <v>97.8833284203818</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G17" t="n">
         <v>70.01461603622408</v>
@@ -5519,13 +5519,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
         <v>83.04597603355158</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E18" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F18" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G18" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I18" t="n">
         <v>2.207202020825291</v>
@@ -5598,46 +5598,46 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M18" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="N18" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="O18" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N18" t="n">
-        <v>55.73185102583861</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="P18" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>26.7539638887914</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y18" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C19" t="n">
         <v>52.75142891054807</v>
       </c>
       <c r="D19" t="n">
-        <v>52.75142891054807</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
         <v>2.207202020825291</v>
@@ -5698,25 +5698,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S19" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V19" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W19" t="n">
         <v>80.62014129470579</v>
       </c>
       <c r="X19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X21" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y23" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="X23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6102,16 +6102,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>533.6469426057913</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6181,16 +6181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>934.7112791079849</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>706.487660844374</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>471.3355526126313</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>227.8867759685313</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="28">
@@ -6415,7 +6415,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343.4227147053767</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C30" t="n">
-        <v>168.9696854242497</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>962.9383285750775</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>719.4895519309775</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>511.6380517254448</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y30" t="n">
-        <v>511.6380517254448</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.7844730889342</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="C32" t="n">
-        <v>333.7844730889342</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>208.8669068441485</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.8898732494892</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.8898732494892</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.8898732494892</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>39.21234000016818</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="U33" t="n">
-        <v>423.4027210148092</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="V33" t="n">
-        <v>188.2506127830665</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="W33" t="n">
-        <v>188.2506127830665</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="X33" t="n">
-        <v>188.2506127830665</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.2506127830665</v>
+        <v>132.8898732494892</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.23151981464226</v>
+        <v>47.39234406061874</v>
       </c>
       <c r="C35" t="n">
         <v>17.23151981464226</v>
@@ -6938,13 +6938,13 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
         <v>622.7209852974139</v>
@@ -6956,31 +6956,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>861.5759907321129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>861.5759907321129</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S35" t="n">
-        <v>650.444607311663</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="T35" t="n">
-        <v>432.8749126823416</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="U35" t="n">
-        <v>234.8012144439637</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="V35" t="n">
-        <v>234.8012144439637</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="W35" t="n">
-        <v>234.8012144439637</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="X35" t="n">
-        <v>17.23151981464226</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.23151981464226</v>
+        <v>264.9620386899402</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>646.3909717355911</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>471.9379424544641</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>323.0035327932128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
-        <v>163.7660777877573</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F36" t="n">
         <v>17.23151981464226</v>
@@ -7017,22 +7017,22 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>142.5890798724797</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>183.0578391930369</v>
+        <v>435.095875319717</v>
       </c>
       <c r="N36" t="n">
-        <v>396.2978968992348</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O36" t="n">
-        <v>609.5379546054328</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P36" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
@@ -7041,25 +7041,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>688.1586461827818</v>
+        <v>828.4377462988861</v>
       </c>
       <c r="U36" t="n">
-        <v>688.1586461827818</v>
+        <v>610.8680516695646</v>
       </c>
       <c r="V36" t="n">
-        <v>688.1586461827818</v>
+        <v>393.2983570402431</v>
       </c>
       <c r="W36" t="n">
-        <v>688.1586461827818</v>
+        <v>393.2983570402431</v>
       </c>
       <c r="X36" t="n">
-        <v>688.1586461827818</v>
+        <v>185.4468568347103</v>
       </c>
       <c r="Y36" t="n">
-        <v>688.1586461827818</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
         <v>17.23151981464226</v>
@@ -7138,7 +7138,7 @@
         <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>459.4731123480227</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C38" t="n">
-        <v>241.9034177187013</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>241.9034177187013</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E38" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>241.9034177187013</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>29.30150906172561</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
         <v>17.23151981464226</v>
@@ -7208,16 +7208,16 @@
         <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="W38" t="n">
-        <v>644.0062961027915</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>459.4731123480227</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y38" t="n">
-        <v>459.4731123480227</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>646.3909717355911</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>471.9379424544641</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>323.0035327932128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>163.7660777877573</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
         <v>17.23151981464226</v>
@@ -7254,19 +7254,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>142.5890798724797</v>
+        <v>152.4612591001897</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0578391930369</v>
+        <v>365.7013168063877</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P39" t="n">
         <v>792.1814322187836</v>
@@ -7275,28 +7275,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>646.3909717355911</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>646.3909717355911</v>
+        <v>660.1312078382391</v>
       </c>
       <c r="U39" t="n">
-        <v>646.3909717355911</v>
+        <v>660.1312078382391</v>
       </c>
       <c r="V39" t="n">
-        <v>646.3909717355911</v>
+        <v>442.5615132089176</v>
       </c>
       <c r="W39" t="n">
-        <v>646.3909717355911</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="X39" t="n">
-        <v>646.3909717355911</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="Y39" t="n">
-        <v>646.3909717355911</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7357,13 +7357,13 @@
         <v>151.763810304913</v>
       </c>
       <c r="S40" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T40" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V40" t="n">
         <v>17.23151981464226</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>445.2559140063055</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="C41" t="n">
-        <v>229.6758497463631</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>229.6758497463631</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7433,28 +7433,28 @@
         <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="X41" t="n">
-        <v>692.2224916858419</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="Y41" t="n">
-        <v>660.8359782662478</v>
+        <v>628.0253748412023</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321.3673965023727</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="C42" t="n">
-        <v>321.3673965023727</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="D42" t="n">
-        <v>321.3673965023727</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="E42" t="n">
-        <v>321.3673965023727</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>269.1739020991926</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>130.4430766818081</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7500,40 +7500,40 @@
         <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>776.3015640907333</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="O42" t="n">
-        <v>776.3015640907333</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>752.5275250222574</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V42" t="n">
-        <v>536.947460762315</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W42" t="n">
-        <v>321.3673965023727</v>
+        <v>422.536925949487</v>
       </c>
       <c r="X42" t="n">
-        <v>321.3673965023727</v>
+        <v>214.6854257439542</v>
       </c>
       <c r="Y42" t="n">
-        <v>321.3673965023727</v>
+        <v>177.0655287476287</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7594,13 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>17.07394108938743</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>17.07394108938743</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>17.07394108938743</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V43" t="n">
         <v>17.07394108938743</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8693,19 +8693,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
         <v>253.9981915106306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,10 +8775,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
         <v>168.2165356390753</v>
@@ -8787,7 +8787,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9012,13 @@
         <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9167,16 +9167,16 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615408</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>258.8230210155857</v>
@@ -9246,13 +9246,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
@@ -9261,7 +9261,7 @@
         <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -9729,7 +9729,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,19 +10431,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>160.7572284521226</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>183.0115685892478</v>
+        <v>348.8252438198737</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
@@ -10680,10 +10680,10 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>275.1500760279019</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0115685892478</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
         <v>346.7357097663615</v>
@@ -10917,7 +10917,7 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11148,16 +11148,16 @@
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>212.1516704230558</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>347.1647481942382</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>183.8629346193314</v>
       </c>
     </row>
     <row r="10">
@@ -23179,7 +23179,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.9499604402799</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>384.3096932574806</v>
+        <v>406.2496818266379</v>
       </c>
       <c r="G11" t="n">
         <v>389.6824463205042</v>
@@ -23279,7 +23279,7 @@
         <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23391,16 +23391,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>183.2066327192466</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23419,28 +23419,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>122.9951818235815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1241873645833</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
         <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>70.79282763244194</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23504,10 +23504,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G14" t="n">
-        <v>392.7363850309042</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
         <v>313.8545109211363</v>
@@ -23540,7 +23540,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>114.7771646789798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>149.8634099458648</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>70.79282763244194</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23695,22 +23695,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>229.5712908395972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>404.5147400615823</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>402.9507326204611</v>
       </c>
       <c r="H17" t="n">
         <v>311.884776855451</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23817,7 +23817,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>87.93414998721002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>172.5747034345055</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24017,25 +24017,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>171.0220216300238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>75.68862979473269</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>134.4973480110223</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24655,10 +24655,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,19 +24725,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>231.6929484832222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>175.5538586117964</v>
       </c>
       <c r="D32" t="n">
-        <v>284.3390338194077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,28 +24959,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>43.14331055490247</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,16 +25044,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>162.6992258814087</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>335.4136757674908</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>55.25269165184244</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125.1831859471485</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25281,22 +25281,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>167.357866705927</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>138.0332253109237</v>
       </c>
       <c r="W38" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>187.043248761248</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25470,16 +25470,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>58.80783644992434</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0.7343936298865401</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,13 +25628,13 @@
         <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>187.2794995913967</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>168.5061064549189</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,7 +25646,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>355.1652903706555</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25713,22 +25713,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>93.39765293423562</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>168.4389977509421</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350071.9014065734</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350071.9014065735</v>
+        <v>350071.9014065734</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350071.9014065734</v>
+        <v>350071.9014065735</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351708.7869702388</v>
+        <v>351708.7869702387</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507087.7759459231</v>
+        <v>507087.7759459229</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507087.7759459231</v>
+        <v>488558.5542106443</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488558.5542106443</v>
+        <v>488558.5542106441</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488558.5542106444</v>
+        <v>488558.5542106443</v>
       </c>
     </row>
     <row r="15">
@@ -26317,10 +26317,10 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>80335.91512409358</v>
       </c>
       <c r="E2" t="n">
-        <v>80335.91512409358</v>
+        <v>80335.91512409359</v>
       </c>
       <c r="F2" t="n">
         <v>80335.91512409358</v>
@@ -26329,7 +26329,7 @@
         <v>80710.96958749177</v>
       </c>
       <c r="H2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="I2" t="n">
         <v>116312.4707719327</v>
@@ -26341,7 +26341,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="L2" t="n">
-        <v>116312.4707719327</v>
+        <v>112066.9282188238</v>
       </c>
       <c r="M2" t="n">
         <v>112066.9282188238</v>
@@ -26350,7 +26350,7 @@
         <v>112066.9282188238</v>
       </c>
       <c r="O2" t="n">
-        <v>111740.5232716417</v>
+        <v>111740.5232716416</v>
       </c>
       <c r="P2" t="n">
         <v>75255.18387201249</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
-        <v>7649.655304310485</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="C4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="D4" t="n">
-        <v>27190.2942010693</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="E4" t="n">
-        <v>29085.49165026514</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="F4" t="n">
-        <v>29085.49165026514</v>
+        <v>28750.45758452691</v>
       </c>
       <c r="G4" t="n">
-        <v>29225.39321700331</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="H4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42505.34661045596</v>
+        <v>40451.80921477855</v>
       </c>
       <c r="M4" t="n">
-        <v>40921.68846797723</v>
+        <v>40451.80921477856</v>
       </c>
       <c r="N4" t="n">
-        <v>40921.68846797723</v>
+        <v>40451.80921477856</v>
       </c>
       <c r="O4" t="n">
-        <v>40799.9339817404</v>
+        <v>40331.44183005529</v>
       </c>
       <c r="P4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
         <v>1557.713704633554</v>
@@ -26497,7 +26497,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14437.2896709432</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="C6" t="n">
-        <v>14437.2896709432</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="D6" t="n">
-        <v>14437.2896709432</v>
+        <v>8441.712781144939</v>
       </c>
       <c r="E6" t="n">
-        <v>42043.05446488439</v>
+        <v>50027.74383493312</v>
       </c>
       <c r="F6" t="n">
-        <v>49692.70976919487</v>
+        <v>50027.74383493311</v>
       </c>
       <c r="G6" t="n">
-        <v>49268.22827326787</v>
+        <v>49604.85618315075</v>
       </c>
       <c r="H6" t="n">
-        <v>1569.66825538336</v>
+        <v>2057.589509943136</v>
       </c>
       <c r="I6" t="n">
-        <v>59153.45539771504</v>
+        <v>59641.37665227487</v>
       </c>
       <c r="J6" t="n">
-        <v>59153.45539771506</v>
+        <v>59641.37665227483</v>
       </c>
       <c r="K6" t="n">
-        <v>59153.45539771506</v>
+        <v>59641.37665227488</v>
       </c>
       <c r="L6" t="n">
-        <v>59153.45539771504</v>
+        <v>58519.16394491716</v>
       </c>
       <c r="M6" t="n">
-        <v>58049.28469171848</v>
+        <v>58519.16394491715</v>
       </c>
       <c r="N6" t="n">
-        <v>58049.28469171847</v>
+        <v>58519.16394491715</v>
       </c>
       <c r="O6" t="n">
-        <v>57964.39406196681</v>
+        <v>58432.88621365189</v>
       </c>
       <c r="P6" t="n">
-        <v>48064.8896709432</v>
+        <v>48378.3324891509</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>25.62029119463083</v>
@@ -26817,7 +26817,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
         <v>215.3939976830282</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="O11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="N12" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
         <v>25.62029119463083</v>
@@ -35507,7 +35507,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>27.59002526031614</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
@@ -35981,7 +35981,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37072,10 +37072,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>22.20284867224841</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37315,7 +37315,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>40.87753466722953</v>
+        <v>206.6912098978554</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
@@ -37400,10 +37400,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>136.5956962480278</v>
       </c>
       <c r="M39" t="n">
-        <v>40.87753466722953</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
         <v>215.3939976830282</v>
@@ -37637,7 +37637,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37868,16 +37868,16 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4242636173429</v>
+        <v>37.01765175063403</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>78.17726300872559</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
